--- a/REGULAR/PICNIC GROVE/DOMINGO, RACHEL.xlsx
+++ b/REGULAR/PICNIC GROVE/DOMINGO, RACHEL.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="170">
   <si>
     <t>PERIOD</t>
   </si>
@@ -540,6 +540,9 @@
   </si>
   <si>
     <t>UT(0-1-33)</t>
+  </si>
+  <si>
+    <t>12/11-15/2023</t>
   </si>
 </sst>
 </file>
@@ -1581,10 +1584,10 @@
   </sheetPr>
   <dimension ref="A2:K444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="2220" topLeftCell="A374" activePane="bottomLeft"/>
-      <selection activeCell="I32" sqref="I32"/>
-      <selection pane="bottomLeft" activeCell="F382" sqref="F382"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="4065" topLeftCell="A389" activePane="bottomLeft"/>
+      <selection activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="E401" sqref="E401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,7 +1746,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>258.44499999999999</v>
+        <v>257.19499999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1753,7 +1756,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>404.88299999999998</v>
+        <v>408.63299999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9848,13 +9851,15 @@
       <c r="B398" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C398" s="13"/>
+      <c r="C398" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D398" s="39"/>
       <c r="E398" s="9"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G398" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H398" s="39"/>
       <c r="I398" s="9"/>
@@ -9868,13 +9873,15 @@
         <v>45199</v>
       </c>
       <c r="B399" s="20"/>
-      <c r="C399" s="13"/>
+      <c r="C399" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D399" s="39"/>
       <c r="E399" s="9"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G399" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H399" s="39"/>
       <c r="I399" s="9"/>
@@ -9886,13 +9893,15 @@
         <v>45230</v>
       </c>
       <c r="B400" s="20"/>
-      <c r="C400" s="13"/>
+      <c r="C400" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D400" s="39"/>
       <c r="E400" s="9"/>
       <c r="F400" s="20"/>
-      <c r="G400" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G400" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H400" s="39"/>
       <c r="I400" s="9"/>
@@ -9903,9 +9912,13 @@
       <c r="A401" s="40">
         <v>45260</v>
       </c>
-      <c r="B401" s="20"/>
+      <c r="B401" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C401" s="13"/>
-      <c r="D401" s="39"/>
+      <c r="D401" s="39">
+        <v>5</v>
+      </c>
       <c r="E401" s="9"/>
       <c r="F401" s="20"/>
       <c r="G401" s="13" t="str">
@@ -9915,7 +9928,9 @@
       <c r="H401" s="39"/>
       <c r="I401" s="9"/>
       <c r="J401" s="11"/>
-      <c r="K401" s="20"/>
+      <c r="K401" s="20" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
